--- a/2-采购合同/塑料件/塑料模具报价清单-发发.xlsx
+++ b/2-采购合同/塑料件/塑料模具报价清单-发发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>塑料标准模架（模具不含税）报价清单</t>
   </si>
@@ -49,7 +49,19 @@
     <t>PPS+40%GF</t>
   </si>
   <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>一模三穴</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
     <t>风罩</t>
+  </si>
+  <si>
+    <t>一模六穴</t>
   </si>
   <si>
     <t>后端盖</t>
@@ -99,76 +111,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,9 +154,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,15 +223,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,24 +238,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,80 +472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +500,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,142 +589,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,14 +1054,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="18.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
@@ -1064,119 +1073,159 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
